--- a/lab4_MPI/实验数据.xlsx
+++ b/lab4_MPI/实验数据.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>运行时间(ms)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,22 +65,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10进程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>实验一：x86平台不同线程数下MPI算法性能对比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实验二：x86平台下不同任务划分方式的MPI算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实验三：x86平台下不同数据收发方式的MPI算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MPI_broadcast</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,10 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实验四：x86平台下MPI与SSE、OpenMP结合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MPI_SSE</t>
   </si>
   <si>
@@ -115,6 +99,18 @@
   </si>
   <si>
     <t>MPI_Neon_OMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验二：x86平台下不同任务划分方式的MPI算法(8进程)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验三：x86平台下不同数据收发方式的MPI算法(8进程)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验四：x86平台下MPI与SSE、OpenMP结合(8进程)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,7 +118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +131,14 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -156,21 +160,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -448,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I56"/>
+  <dimension ref="B3:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -463,17 +477,17 @@
     <col min="9" max="9" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>1</v>
       </c>
@@ -492,49 +506,136 @@
       <c r="H5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D6" s="2">
+        <v>0.19031500000000001</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.17132600000000001</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.25387300000000002</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.26970300000000003</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.352412</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
         <v>128</v>
       </c>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="2">
+        <v>1.47227</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.0965100000000001</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1.6327700000000001</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1.5864199999999999</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1.92774</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
         <v>256</v>
       </c>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="2">
+        <v>11.7234</v>
+      </c>
+      <c r="E8" s="2">
+        <v>9.4168699999999994</v>
+      </c>
+      <c r="F8" s="2">
+        <v>10.155200000000001</v>
+      </c>
+      <c r="G8" s="2">
+        <v>11.2605</v>
+      </c>
+      <c r="H8" s="2">
+        <v>12.3287</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
         <v>512</v>
       </c>
-    </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="2">
+        <v>94.263000000000005</v>
+      </c>
+      <c r="E9" s="2">
+        <v>69.565899999999999</v>
+      </c>
+      <c r="F9" s="2">
+        <v>65.729399999999998</v>
+      </c>
+      <c r="G9" s="2">
+        <v>69.192700000000002</v>
+      </c>
+      <c r="H9" s="2">
+        <v>74.554500000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
         <v>1024</v>
       </c>
-    </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="2">
+        <v>830.18100000000004</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1060.8399999999999</v>
+      </c>
+      <c r="F10" s="2">
+        <v>731.78599999999994</v>
+      </c>
+      <c r="G10" s="2">
+        <v>695.39300000000003</v>
+      </c>
+      <c r="H10" s="2">
+        <v>541.26099999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
         <v>2048</v>
       </c>
-    </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D11" s="2">
+        <v>8531.59</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5696.86</v>
+      </c>
+      <c r="F11" s="2">
+        <v>5107.37</v>
+      </c>
+      <c r="G11" s="2">
+        <v>4623.59</v>
+      </c>
+      <c r="H11" s="2">
+        <v>3755.2</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,71 +643,93 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C17" s="1">
         <v>64</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="D17" s="2">
+        <v>0.352412</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.43653999999999998</v>
+      </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C18" s="1">
         <v>128</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="D18" s="2">
+        <v>1.92774</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2.18649</v>
+      </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C19" s="1">
         <v>256</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="D19" s="2">
+        <v>12.3287</v>
+      </c>
+      <c r="E19" s="2">
+        <v>14.57</v>
+      </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C20" s="1">
         <v>512</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="D20" s="2">
+        <v>74.554500000000004</v>
+      </c>
+      <c r="E20" s="2">
+        <v>61.287199999999999</v>
+      </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C21" s="1">
         <v>1024</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="D21" s="2">
+        <v>541.26099999999997</v>
+      </c>
+      <c r="E21" s="2">
+        <v>496.83600000000001</v>
+      </c>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C22" s="1">
         <v>2048</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="D22" s="2">
+        <v>3755.2</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3165.37</v>
+      </c>
       <c r="F22" s="1"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
@@ -624,22 +747,24 @@
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F27" s="1"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1">
         <v>64</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="D28" s="2">
+        <v>0.61929599999999996</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.65681500000000004</v>
+      </c>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
@@ -647,8 +772,12 @@
       <c r="C29" s="1">
         <v>128</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="D29" s="2">
+        <v>2.7051400000000001</v>
+      </c>
+      <c r="E29" s="2">
+        <v>3.1755800000000001</v>
+      </c>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
@@ -656,8 +785,12 @@
       <c r="C30" s="1">
         <v>256</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="D30" s="2">
+        <v>16.811299999999999</v>
+      </c>
+      <c r="E30" s="2">
+        <v>15.127800000000001</v>
+      </c>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
@@ -665,8 +798,12 @@
       <c r="C31" s="1">
         <v>512</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="D31" s="2">
+        <v>83.580299999999994</v>
+      </c>
+      <c r="E31" s="2">
+        <v>76.709000000000003</v>
+      </c>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
@@ -674,8 +811,12 @@
       <c r="C32" s="1">
         <v>1024</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="D32" s="2">
+        <v>526.024</v>
+      </c>
+      <c r="E32" s="2">
+        <v>473.83699999999999</v>
+      </c>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
@@ -683,13 +824,17 @@
       <c r="C33" s="1">
         <v>2048</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="D33" s="2">
+        <v>3137.41</v>
+      </c>
+      <c r="E33" s="2">
+        <v>2510.1</v>
+      </c>
       <c r="F33" s="1"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
@@ -708,66 +853,120 @@
         <v>4</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G38" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C39" s="1">
         <v>64</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+      <c r="D39" s="2">
+        <v>0.569828</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.42663200000000001</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0.68692699999999995</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0.62835399999999997</v>
+      </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C40" s="1">
         <v>128</v>
       </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+      <c r="D40" s="2">
+        <v>2.69354</v>
+      </c>
+      <c r="E40" s="2">
+        <v>2.59816</v>
+      </c>
+      <c r="F40" s="2">
+        <v>4.6252199999999997</v>
+      </c>
+      <c r="G40" s="2">
+        <v>2.8350399999999998</v>
+      </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C41" s="1">
         <v>256</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+      <c r="D41" s="2">
+        <v>16.589500000000001</v>
+      </c>
+      <c r="E41" s="2">
+        <v>15.5566</v>
+      </c>
+      <c r="F41" s="2">
+        <v>15.7315</v>
+      </c>
+      <c r="G41" s="2">
+        <v>14.968999999999999</v>
+      </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C42" s="1">
         <v>512</v>
       </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
+      <c r="D42" s="2">
+        <v>60.412999999999997</v>
+      </c>
+      <c r="E42" s="2">
+        <v>46.991199999999999</v>
+      </c>
+      <c r="F42" s="2">
+        <v>76.8429</v>
+      </c>
+      <c r="G42" s="2">
+        <v>59.560200000000002</v>
+      </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C43" s="1">
         <v>1024</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
+      <c r="D43" s="2">
+        <v>420.71699999999998</v>
+      </c>
+      <c r="E43" s="2">
+        <v>296.666</v>
+      </c>
+      <c r="F43" s="2">
+        <v>538.89300000000003</v>
+      </c>
+      <c r="G43" s="2">
+        <v>308.41199999999998</v>
+      </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C44" s="1">
         <v>2048</v>
       </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+      <c r="D44" s="2">
+        <v>3304.67</v>
+      </c>
+      <c r="E44" s="2">
+        <v>2562.0500000000002</v>
+      </c>
+      <c r="F44" s="2">
+        <v>3797.4</v>
+      </c>
+      <c r="G44" s="2">
+        <v>2730.2</v>
+      </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
@@ -786,13 +985,13 @@
         <v>5</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G49" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="3:7" x14ac:dyDescent="0.25">

--- a/lab4_MPI/实验数据.xlsx
+++ b/lab4_MPI/实验数据.xlsx
@@ -464,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -998,49 +998,103 @@
       <c r="C50" s="1">
         <v>64</v>
       </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
+      <c r="D50" s="2">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0.47920000000000001</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0.46310000000000001</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0.49619999999999997</v>
+      </c>
     </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C51" s="1">
         <v>128</v>
       </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
+      <c r="D51" s="2">
+        <v>3.8241000000000001</v>
+      </c>
+      <c r="E51" s="2">
+        <v>4.1123000000000003</v>
+      </c>
+      <c r="F51" s="2">
+        <v>3.9832000000000001</v>
+      </c>
+      <c r="G51" s="2">
+        <v>3.9293</v>
+      </c>
     </row>
     <row r="52" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C52" s="1">
         <v>256</v>
       </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
+      <c r="D52" s="2">
+        <v>16.392900000000001</v>
+      </c>
+      <c r="E52" s="2">
+        <v>16.937100000000001</v>
+      </c>
+      <c r="F52" s="2">
+        <v>15.364000000000001</v>
+      </c>
+      <c r="G52" s="2">
+        <v>14.2714</v>
+      </c>
     </row>
     <row r="53" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C53" s="1">
         <v>512</v>
       </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
+      <c r="D53" s="2">
+        <v>113.437</v>
+      </c>
+      <c r="E53" s="2">
+        <v>104.69029999999999</v>
+      </c>
+      <c r="F53" s="2">
+        <v>117.816</v>
+      </c>
+      <c r="G53" s="2">
+        <v>106.58</v>
+      </c>
     </row>
     <row r="54" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C54" s="1">
         <v>1024</v>
       </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
+      <c r="D54" s="2">
+        <v>654.36609999999996</v>
+      </c>
+      <c r="E54" s="2">
+        <v>502.49200000000002</v>
+      </c>
+      <c r="F54" s="2">
+        <v>527.28899999999999</v>
+      </c>
+      <c r="G54" s="2">
+        <v>463.51600000000002</v>
+      </c>
     </row>
     <row r="55" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C55" s="1">
         <v>2048</v>
       </c>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
+      <c r="D55" s="2">
+        <v>5248.18</v>
+      </c>
+      <c r="E55" s="2">
+        <v>3597.74</v>
+      </c>
+      <c r="F55" s="2">
+        <v>3829.56</v>
+      </c>
+      <c r="G55" s="2">
+        <v>3202.27</v>
+      </c>
     </row>
     <row r="56" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C56" s="1"/>

--- a/lab4_MPI/实验数据.xlsx
+++ b/lab4_MPI/实验数据.xlsx
@@ -464,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -663,7 +663,7 @@
         <v>0.352412</v>
       </c>
       <c r="E17" s="2">
-        <v>0.43653999999999998</v>
+        <v>0.33654000000000001</v>
       </c>
       <c r="F17" s="1"/>
     </row>
@@ -687,7 +687,7 @@
         <v>12.3287</v>
       </c>
       <c r="E19" s="2">
-        <v>14.57</v>
+        <v>11.57</v>
       </c>
       <c r="F19" s="1"/>
     </row>
@@ -776,7 +776,7 @@
         <v>2.7051400000000001</v>
       </c>
       <c r="E29" s="2">
-        <v>3.1755800000000001</v>
+        <v>2.1755800000000001</v>
       </c>
       <c r="F29" s="1"/>
     </row>
